--- a/docs/ST1a/ST1a_12.08.24_output.xlsx
+++ b/docs/ST1a/ST1a_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731661616.1185746</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731661617.1670878</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661616.1185746.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661617.1670878.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.48</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.35</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731661617.2167716</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731661618.736927</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661617.2167716.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661618.736927.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.98</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2699999999999818</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731661618.8289423</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731661622.0526161</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661618.8289423.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661622.0526161.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731661627.259693</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731661628.0736473</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661627.259693.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661628.0736473.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>279.08</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>279.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731661628.2913883</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731661630.2613378</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661628.2913883.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731661630.2613378.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>279.66</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -799,95 +845,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731661630.2772686</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731661630.2772686.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731661630.2772686.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>279.66</v>
       </c>
-      <c r="J8" t="n">
-        <v>279.66</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>280.15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4899999999999523</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731661632.6302664</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731661633.4610457</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661632.6302664.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661633.4610457.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.48</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731661633.509914</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731661634.7805164</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661633.509914.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661634.7805164.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.25</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.98</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2699999999999818</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731661634.8652623</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731661637.5570645</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661634.8652623.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661637.5570645.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731661642.0470843</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731661642.7512007</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661642.0470843.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661642.7512007.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.08</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>279.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731661642.9536326</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731661644.574326</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661642.9536326.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661644.574326.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>279.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>279.66</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731661644.5902817</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731661646.7743573</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661644.5902817.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661646.7743573.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>279.66</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.88</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7800000000000296</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731661646.7893226</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731661647.2492151</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661646.7893226.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661647.2492151.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.88</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.75</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731661649.9446425</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731661653.2527428</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661649.9446425.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661653.2527428.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.92</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>279.14</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.2199999999999704</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731661657.2190223</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731661657.9719853</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661657.2190223.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661657.9719853.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>279.47</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>279.67</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731661658.7975123</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731661659.5877156</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661658.7975123.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661659.5877156.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>280.02</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>279.99</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.02999999999997272</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731661659.7723598</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731661661.669939</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661659.7723598.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661661.669939.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>280.16</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>280.57</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.4099999999999682</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731661661.6858692</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731661663.3315508</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661661.6858692.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661663.3315508.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>280.57</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>281.34</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.7699999999999818</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731661665.4431286</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731661665.8798964</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661665.4431286.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661665.8798964.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.93</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>128.31</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731661666.1733875</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731661667.3005815</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661666.1733875.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661667.3005815.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.89</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.76</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731661667.357351</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731661668.0669029</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661667.357351.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661668.0669029.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.85</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.31</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731661668.5914996</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731661669.7180202</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661668.5914996.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661669.7180202.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.63</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.55</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731661674.1557145</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731661674.6095328</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661674.1557145.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661674.6095328.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.05</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731661675.0218804</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731661676.0686362</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661675.0218804.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661676.0686362.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>128.05</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>128.12</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731661676.1327448</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731661677.2086353</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661676.1327448.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661677.2086353.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>128.11</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>128.09</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731661677.4390435</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731661679.7996702</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661677.4390435.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731661679.7996702.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>128.19</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>128.77</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.5800000000000125</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731661681.9325025</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731661682.3931787</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661681.9325025.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661682.3931787.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6375</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6373</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731661683.1958728</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731661685.0715275</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661683.1958728.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661685.0715275.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6373</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6345</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-28</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731661686.1301384</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731661687.386004</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661686.1301384.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661687.386004.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6328</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6339</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-11</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731661691.7368987</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731661694.0694206</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661691.7368987.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661694.0694206.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6367</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6375</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>8</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731661694.1292133</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731661694.6068764</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661694.1292133.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661694.6068764.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6374</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6372</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2143,95 +2345,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731661696.4547737</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731661696.4547737.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731661696.4547737.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6415</v>
       </c>
-      <c r="J34" t="n">
-        <v>6415</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6429</v>
+      </c>
+      <c r="M34" t="n">
+        <v>14</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731661698.0879345</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731661699.154508</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661698.0879345.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661699.154508.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>501.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>501.1</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731661699.2117474</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731661702.1008322</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661699.2117474.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661702.1008322.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>501.35</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>497.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-4.25</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731661702.8753886</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731661703.8047636</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661702.8753886.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661703.8047636.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>496.05</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>496.65</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.5999999999999659</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731661709.8820066</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731661711.0122433</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661709.8820066.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661711.0122433.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>498.85</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>498.35</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731661711.0775895</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731661712.1379766</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661711.0775895.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661712.1379766.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>498.75</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>498.35</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731661712.1549313</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731661712.508323</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661712.1549313.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731661712.508323.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>498.35</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>500.25</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2499,95 +2743,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731661712.9550822</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731661712.9550822.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731661712.9550822.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>499.25</v>
       </c>
-      <c r="J41" t="n">
-        <v>499.25</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>501.85</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.600000000000023</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731661720.2101886</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731661720.5063303</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731661720.2101886.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731661720.5063303.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>224.56</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>224.25</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731661720.643137</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731661723.4549792</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731661720.643137.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731661723.4549792.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>224.32</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>225.38</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.060000000000002</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731661726.4984632</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731661729.3504558</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731661726.4984632.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731661729.3504558.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>226.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>226.36</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2600000000000193</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731661731.928353</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731661732.5132263</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731661731.928353.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731661732.5132263.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1009.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1008.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731661733.9193344</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731661734.732943</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731661733.9193344.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731661734.732943.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1012.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1012.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731661742.2269003</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731661743.577543</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731661742.2269003.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731661743.577543.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1017</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1019.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-2.600000000000023</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731661748.4988008</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731661749.9344258</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661748.4988008.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661749.9344258.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.941</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>11.919</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.02200000000000024</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731661749.951354</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731661750.81143</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661749.951354.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661750.81143.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>11.919</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>11.914</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731661750.8273869</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731661751.4805307</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661750.8273869.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661751.4805307.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>11.914</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>11.915</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731661752.2188504</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731661753.7793577</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661752.2188504.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661753.7793577.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>11.907</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>11.92</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731661754.6403835</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731661756.7838767</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661754.6403835.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661756.7838767.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>11.928</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>11.957</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.02899999999999991</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731661757.7515452</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731661758.6173592</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661757.7515452.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661758.6173592.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>11.96</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>11.964</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731661759.4989467</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731661760.7777197</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661759.4989467.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731661760.7777197.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>11.962</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>11.952</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.009999999999999787</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3219,95 +3547,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731661760.8341053</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731661760.8341053.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731661760.8341053.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>11.956</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.956</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>12.009</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.05300000000000082</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731661764.6876357</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731661766.650613</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661764.6876357.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661766.650613.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>123.16</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>124.08</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.9200000000000017</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3315,51 +3655,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731661766.9068096</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731661767.6200075</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661766.9068096.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661767.6200075.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>123.56</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>123.58</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3367,51 +3713,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731661767.6369646</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731661776.273496</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661767.6369646.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661776.273496.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>123.58</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>124.02</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -3419,51 +3771,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731661777.3917475</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731661779.1379688</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661777.3917475.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661779.1379688.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>124.06</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>124.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -3471,51 +3829,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731661779.1930015</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731661780.089083</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661779.1930015.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731661780.089083.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>124.34</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>124.92</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3523,51 +3887,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731661784.456227</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731661785.5387557</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661784.456227.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661785.5387557.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>159.02</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>159.12</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3575,51 +3945,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731661785.64342</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731661786.687235</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661785.64342.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661786.687235.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>159.22</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>159.32</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3627,51 +4003,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731661786.8120673</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731661788.0455604</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661786.8120673.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661788.0455604.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>159.26</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>159.34</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3679,51 +4061,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731661791.3607073</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731661792.3793619</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661791.3607073.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731661792.3793619.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>160.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>161.82</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.019999999999982</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -3731,95 +4119,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731661795.1897898</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731661795.1897898.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731661795.1897898.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>161.7</v>
       </c>
-      <c r="J65" t="n">
-        <v>161.7</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>162.3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731661798.7355728</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731661799.5653539</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731661798.7355728.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731661799.5653539.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>49.055</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>49.095</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731661799.62056</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731661802.3805795</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731661799.62056.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731661802.3805795.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.065</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.25</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1850000000000023</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731661810.2540572</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731661813.0025003</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731661810.2540572.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731661813.0025003.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>49.9</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>50.09</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1900000000000048</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731661816.8288374</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731661823.581845</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731661816.8288374.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731661823.581845.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1371.4</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>8</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -3983,51 +4401,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731661824.3871713</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731661825.5583234</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731661824.3871713.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731661825.5583234.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1377.8</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1384</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731661826.2432423</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731661826.7882016</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731661826.2432423.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731661826.7882016.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1381.4</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1382.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731661831.5113275</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731661832.2648487</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661831.5113275.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661832.2648487.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>61.07</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>61.09</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4139,51 +4575,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731661833.894884</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731661836.4852526</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661833.894884.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661836.4852526.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>61</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>60.92</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4191,51 +4633,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731661836.5021994</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731661838.9274993</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661836.5021994.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661838.9274993.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>60.92</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>60.98</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.05999999999999517</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4243,51 +4691,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731661841.0399694</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731661843.3448646</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661841.0399694.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731661843.3448646.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>61.05</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>61.11</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4295,95 +4749,107 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731661843.3617969</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731661843.3617969.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731661843.3617969.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>61.11</v>
       </c>
-      <c r="J76" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>61.52</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.4100000000000037</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731661848.656383</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731661849.9806757</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661848.656383.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661849.9806757.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>96.73</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>97.25</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.519999999999996</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731661850.3967028</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731661851.1900504</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661850.3967028.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661851.1900504.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>97.04000000000001</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.05999999999998806</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731661851.247156</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731661853.6848466</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661851.247156.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661853.6848466.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>97.09</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>96.88</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731661853.794056</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731661854.6671214</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661853.794056.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661854.6671214.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>96.91</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>97.31</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4547,51 +5031,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731661855.004018</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731661858.9664145</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661855.004018.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661858.9664145.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>97.59</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4599,51 +5089,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731661859.9807827</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731661860.9136052</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661859.9807827.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731661860.9136052.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>97.83</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>98.02</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4651,95 +5147,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731661862.9740214</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731661862.9740214.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731661862.9740214.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>98.16</v>
       </c>
-      <c r="J83" t="n">
-        <v>98.16</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731661865.3259802</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731661866.370015</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731661865.3259802.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731661866.370015.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>55.35</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>55.34</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4747,51 +5255,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731661866.4376636</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731661866.990523</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731661866.4376636.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731661866.990523.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>55.32</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>55.37</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4799,95 +5313,107 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731661878.2049973</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731661878.2049973.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731661878.2049973.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>55.77</v>
       </c>
-      <c r="J86" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>55.97</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731661883.7096572</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731661886.127007</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731661883.7096572.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731661886.127007.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>150</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>149.78</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4895,51 +5421,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731661886.1839676</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731661889.168953</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731661886.1839676.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731661889.168953.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>149.58</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>149.46</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4947,51 +5479,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731661891.4720428</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731661892.1092792</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731661891.4720428.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731661892.1092792.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>150.58</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>151.16</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4999,51 +5537,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731661900.650513</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731661905.5840948</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731661900.650513.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731661905.5840948.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.2945</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.2957</v>
       </c>
-      <c r="K90" t="n">
-        <v>-0.001199999999999979</v>
-      </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
+        <v>-0.001200000000000034</v>
+      </c>
+      <c r="N90" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -5051,95 +5595,107 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731661905.6000528</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731661905.6000528.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731661905.6000528.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>0.2957</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.2957</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.2988</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.003099999999999992</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731661909.322324</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731661909.9137702</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661909.322324.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661909.9137702.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>19.919</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>19.861</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.05799999999999983</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5147,51 +5703,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731661910.223333</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731661912.0105956</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661910.223333.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661912.0105956.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>19.872</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>19.859</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.01299999999999812</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -5199,51 +5761,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731661912.0275228</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731661912.934972</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661912.0275228.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661912.934972.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>19.859</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>19.835</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.02400000000000091</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5251,51 +5819,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731661919.1997814</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731661920.048742</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661919.1997814.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661920.048742.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>19.947</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>19.95</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5303,51 +5877,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731661920.1216333</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731661921.0328836</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661920.1216333.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661921.0328836.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>19.95</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19.976</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.0259999999999998</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -5355,51 +5935,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731661921.0927484</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731661922.033188</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661921.0927484.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661922.033188.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.955</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.962</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.00700000000000145</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5407,51 +5993,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731661922.05114</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731661924.9402194</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661922.05114.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731661924.9402194.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.962</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>20.078</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.1159999999999997</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -5459,51 +6051,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731661929.8104978</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731661930.654069</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731661929.8104978.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731661930.654069.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>665.15</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>665.35</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -5511,51 +6109,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731661936.1346445</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731661938.0795727</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731661936.1346445.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731661938.0795727.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>670.75</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>670.7</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5563,95 +6167,107 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731661938.096531</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731661938.096531.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731661938.096531.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>670.7</v>
       </c>
-      <c r="J101" t="n">
-        <v>670.7</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>674.45</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731661942.4778502</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731661943.6272092</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661942.4778502.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661943.6272092.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>149.31</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>149.84</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.5300000000000011</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -5659,51 +6275,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731661943.6441646</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731661944.5032609</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661943.6441646.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661944.5032609.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>149.84</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>149.96</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5711,51 +6333,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731661945.359317</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731661948.5595577</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661945.359317.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661948.5595577.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>149.51</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>149.55</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5763,51 +6391,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731661954.0324757</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731661954.8050058</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661954.0324757.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731661954.8050058.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>152.77</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>153</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -5891,19 +6525,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01999999999999957</v>
+        <v>-0.03300000000000125</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002499999999999947</v>
+        <v>-0.004125000000000156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.17</v>
+        <v>-0.27</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4">
@@ -5957,19 +6591,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.870000000000005</v>
+        <v>1.970000000000013</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2671428571428578</v>
+        <v>0.2814285714285733</v>
       </c>
       <c r="E6" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -5979,19 +6613,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.250000000000057</v>
+        <v>0.3499999999999659</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3214285714285796</v>
+        <v>0.04999999999999512</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4500000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -6001,19 +6635,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27</v>
+        <v>-13</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.5</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4199999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9">
@@ -6023,19 +6657,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3799999999999955</v>
+        <v>0.1099999999999568</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06333333333333258</v>
+        <v>0.01833333333332613</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.14</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -6045,19 +6679,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.099999999999994</v>
+        <v>1.700000000000017</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.3400000000000034</v>
       </c>
       <c r="E10" t="n">
-        <v>0.68</v>
+        <v>1.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">
@@ -6089,19 +6723,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1799999999999926</v>
+        <v>-0.2300000000000111</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03599999999999852</v>
+        <v>-0.04600000000000222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>-0.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6199,19 +6833,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05999999999999517</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01999999999999839</v>
+        <v>0.08666666666666363</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18">
@@ -6221,19 +6855,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1500000000000909</v>
+        <v>-3.599999999999909</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05000000000003032</v>
+        <v>-1.19999999999997</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02</v>
+        <v>-0.5399999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="19">
@@ -6287,19 +6921,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.001899999999999957</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0005999999999999894</v>
+        <v>0.0009499999999999786</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.41</v>
+        <v>0.64</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="22">
